--- a/biology/Neurosciences/Neurogastroentérologie/Neurogastroentérologie.xlsx
+++ b/biology/Neurosciences/Neurogastroentérologie/Neurogastroentérologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neurogastroent%C3%A9rologie</t>
+          <t>Neurogastroentérologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurogastroentérologie est l'étude du contrôle nerveux des activités motrices et sécrétives du système digestif par les systèmes nerveux périphériques (ganglions paravertébraux et système nerveux entérique) et centraux (cerveau et moelle épinière).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neurogastroent%C3%A9rologie</t>
+          <t>Neurogastroentérologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurogastroentérologie est une discipline qui remonte aux travaux du médecin français Jean-François Frenel, découvreur du péristaltisme, en 1542.  Ce mécanisme fut ensuite étudié par William Bayliss et Ernest Starling au XIXe siècle en Angleterre.  Toutefois ce n'est qu'à la fin du XIXe siècle, que l'Allemand Paul Trendelenburg (de) observe qu'un segment d'intestin placé dans un bocal poursuit son activité motrice intrinsèque. 
 </t>
